--- a/series_schedule.xlsx
+++ b/series_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97BC2BE-2527-4D72-A766-9BCA98B4F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19550A9-9420-43B2-8973-5B31CA46B737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11396" xr2:uid="{C96255DB-165B-4868-82DC-88522494CFEB}"/>
+    <workbookView xWindow="1865" yWindow="1865" windowWidth="14918" windowHeight="8101" xr2:uid="{C96255DB-165B-4868-82DC-88522494CFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Dragon Ball Z</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>R12_p.txt</t>
+  </si>
+  <si>
+    <t>Higurashi : When They Cry</t>
+  </si>
+  <si>
+    <t>HR_Bumper.mp4</t>
+  </si>
+  <si>
+    <t>HR.txt</t>
+  </si>
+  <si>
+    <t>HR_p.txt</t>
+  </si>
+  <si>
+    <t>Dragon Ball Super</t>
+  </si>
+  <si>
+    <t>DBS_Bumper.mp4</t>
+  </si>
+  <si>
+    <t>DBS.txt</t>
+  </si>
+  <si>
+    <t>DBS_p.txt</t>
   </si>
 </sst>
 </file>
@@ -478,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23C9820-D570-4D5C-AA01-C891E40A5406}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +534,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -527,7 +551,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -544,7 +568,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -557,6 +581,40 @@
       </c>
       <c r="E4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
